--- a/public/template/additional.xlsx
+++ b/public/template/additional.xlsx
@@ -1,65 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/ajri/public/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramdoni/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39B2ED86-68CE-6F44-9642-41972D24BC35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30B9C5A4-5BCB-D447-BBDB-C5E1A2726579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{3A6D59CA-68D0-EC42-856F-DE4DB002D247}"/>
+    <workbookView xWindow="-23620" yWindow="3440" windowWidth="25600" windowHeight="16940" xr2:uid="{E2106B48-8C89-4044-B07B-BA63BDA38D2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" calcOnSave="0"/>
+  <calcPr calcId="181029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Bulan</t>
-  </si>
-  <si>
-    <t>User_Memo</t>
-  </si>
-  <si>
-    <t>User_Akseptasi</t>
-  </si>
-  <si>
-    <t>Transaksi ID</t>
-  </si>
-  <si>
-    <t>Berkas Akseptasi</t>
-  </si>
-  <si>
-    <t>Tgl_Pngjuan_Email</t>
-  </si>
-  <si>
-    <t>Tgl_Produksi</t>
-  </si>
-  <si>
-    <t>NoReg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>No_Polis</t>
   </si>
   <si>
-    <t>No_Polis_Sistem</t>
-  </si>
-  <si>
     <t>Pemegang_Polis</t>
   </si>
   <si>
@@ -69,39 +47,6 @@
     <t>Cabang</t>
   </si>
   <si>
-    <t>Produk</t>
-  </si>
-  <si>
-    <t>Jumlah_Peserta_Pending</t>
-  </si>
-  <si>
-    <t>UP_Peserta_Pending</t>
-  </si>
-  <si>
-    <t>Premi_Peserta_Pending</t>
-  </si>
-  <si>
-    <t>Jml_Peserta</t>
-  </si>
-  <si>
-    <t>No_Peserta_Awal</t>
-  </si>
-  <si>
-    <t>extSD</t>
-  </si>
-  <si>
-    <t>No_Peserta_Akhir</t>
-  </si>
-  <si>
-    <t>Periode_Awal</t>
-  </si>
-  <si>
-    <t>Periode_Akhir</t>
-  </si>
-  <si>
-    <t>UP</t>
-  </si>
-  <si>
     <t>Premi_Gross</t>
   </si>
   <si>
@@ -114,24 +59,12 @@
     <t>Jml_Discount</t>
   </si>
   <si>
-    <t>Jml_Cad_Klaim</t>
-  </si>
-  <si>
-    <t>ExtDiskon</t>
-  </si>
-  <si>
-    <t>Cad_Klaim</t>
-  </si>
-  <si>
     <t>Handling fee</t>
   </si>
   <si>
     <t>Jml_Fee</t>
   </si>
   <si>
-    <t>Pph</t>
-  </si>
-  <si>
     <t>Jml_Pph</t>
   </si>
   <si>
@@ -144,30 +77,12 @@
     <t>Biaya_Sertifikat</t>
   </si>
   <si>
-    <t>extPst</t>
+    <t>Materai</t>
   </si>
   <si>
     <t>Premi_Dibayar</t>
   </si>
   <si>
-    <t>Terbilang</t>
-  </si>
-  <si>
-    <t>Tgl_Update_Database</t>
-  </si>
-  <si>
-    <t>Tgl_Update_Sistem</t>
-  </si>
-  <si>
-    <t>No_Berkas_Sistem</t>
-  </si>
-  <si>
-    <t>Tgl_Posting_Sistem</t>
-  </si>
-  <si>
-    <t>Ket_Posting</t>
-  </si>
-  <si>
     <t>Tgl_Invoice</t>
   </si>
   <si>
@@ -177,50 +92,37 @@
     <t>Total_Gross_Kwitansi</t>
   </si>
   <si>
-    <t>Grace_Periode</t>
-  </si>
-  <si>
     <t>Tgl_Jatuh Tempo</t>
   </si>
   <si>
     <t>Tgl_Lunas</t>
   </si>
   <si>
-    <t>KetLampiran</t>
-  </si>
-  <si>
-    <t>Register No Sistem Intlysis</t>
-  </si>
-  <si>
-    <t>SLA</t>
-  </si>
-  <si>
-    <t>Berkas Dummy</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Biaya Polis</t>
-  </si>
-  <si>
-    <t>Biaya Sertifikat / Kartu</t>
-  </si>
-  <si>
-    <t>Hari kerja</t>
-  </si>
-  <si>
-    <t>Hari Kalender</t>
-  </si>
-  <si>
     <t>Line Bussines</t>
+  </si>
+  <si>
+    <t>Channel Type</t>
+  </si>
+  <si>
+    <t>Channel Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,14 +132,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,14 +168,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,219 +493,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D43B3E-0B33-714E-8D82-6129D587D95A}">
-  <dimension ref="A1:BQ1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FA3CF4-65D9-1049-B3C3-74FB9A793C2D}">
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BN4" sqref="BN4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="69" max="69" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI1" s="1" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="BJ1" s="1" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/additional.xlsx
+++ b/public/template/additional.xlsx
@@ -5,35 +5,103 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramdoni/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramdoni/Data/Projects/PT Asuransi Reliance Indonesia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30B9C5A4-5BCB-D447-BBDB-C5E1A2726579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25430305-968C-054C-ACC3-9D8047E65BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23620" yWindow="3440" windowWidth="25600" windowHeight="16940" xr2:uid="{E2106B48-8C89-4044-B07B-BA63BDA38D2D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{E2106B48-8C89-4044-B07B-BA63BDA38D2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{85FF2EE5-DC3D-9A42-996C-C2C054D30B1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>digunakan untuk acuan tanggal jurna</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{A034A7D8-E8DE-DF4B-AF06-00EF7DBD5D27}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tidak boleh kosong</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>No_Polis</t>
   </si>
@@ -105,6 +173,15 @@
   </si>
   <si>
     <t>Channel Name</t>
+  </si>
+  <si>
+    <t>Tgl_produksi</t>
+  </si>
+  <si>
+    <t>Product Code</t>
+  </si>
+  <si>
+    <t>Client Code</t>
   </si>
 </sst>
 </file>
@@ -113,9 +190,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,15 +208,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,13 +245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -172,13 +263,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -493,16 +591,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FA3CF4-65D9-1049-B3C3-74FB9A793C2D}">
-  <dimension ref="A1:X1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FA3CF4-65D9-1049-B3C3-74FB9A793C2D}">
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" customWidth="1"/>
+    <col min="19" max="20" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,67 +622,77 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AA1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>